--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/views/tabelas/parametros_evolutivos.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/views/tabelas/parametros_evolutivos.xlsx
@@ -493,17 +493,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>esfera</t>
+          <t>rastrigin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
